--- a/flocking/CS3343_ActivityLog_TimeSheet_Boids.xlsx
+++ b/flocking/CS3343_ActivityLog_TimeSheet_Boids.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex McVay\git\flocking\flocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981DC8C-74AF-40A1-9251-330FDE0D1A08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="3060" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
     <sheet name="Weekly Activity Log" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Course</t>
   </si>
@@ -124,12 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Weekly Activity Log </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruit Project Memebers to Form a Team. </t>
-  </si>
-  <si>
-    <t>Chan Tai Man</t>
   </si>
   <si>
     <t>e.g.Group Mark</t>
@@ -143,38 +144,53 @@
   <si>
     <t>2019-20 Semester A</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>start drafting of Vector Boid Bird Screen drawable</t>
+  </si>
+  <si>
+    <t>move Boid Bird and Vector to testing redo the drawable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +198,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,14 +206,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +221,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +229,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,7 +237,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -229,31 +245,31 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,7 +625,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -753,29 +769,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,7 +810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,6 +885,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -901,6 +937,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1076,41 +1129,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="17" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="19" max="19" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1126,16 +1179,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="17">
         <f>COUNTIF(A10:A17,"&gt;0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1143,8 +1196,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:22" ht="15.75">
       <c r="A9" s="46" t="s">
         <v>1</v>
       </c>
@@ -1203,26 +1256,30 @@
         <v>22</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U9" s="29" t="s">
         <v>29</v>
       </c>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="48">
-        <v>12345678</v>
-      </c>
+    <row r="10" spans="1:22" ht="15.75">
+      <c r="A10" s="48"/>
       <c r="B10" s="52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="35">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
@@ -1234,35 +1291,41 @@
       <c r="O10" s="9"/>
       <c r="P10" s="27">
         <f>SUM(C10:O10)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f>B10</f>
-        <v>Chan Tai Man</v>
+        <v>Alex</v>
       </c>
       <c r="R10" s="23">
         <f>(P10/$P$18*$B$6)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="33">
+        <v>0</v>
+      </c>
+      <c r="S10" s="33" t="e">
         <f t="shared" ref="S10:S15" si="0">R10/$R$18</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T10" s="23">
         <v>80</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="30" t="e">
         <f>S10*T10</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75">
       <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
+      <c r="B11" s="52" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -1274,35 +1337,41 @@
       <c r="O11" s="9"/>
       <c r="P11" s="27">
         <f t="shared" ref="P11:P15" si="1">SUM(C11:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="22">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="22" t="str">
         <f t="shared" ref="Q11:Q15" si="2">B11</f>
-        <v>0</v>
+        <v>Jonathan</v>
       </c>
       <c r="R11" s="23">
         <f>P11/$P$18*$B$6</f>
         <v>0</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T11" s="23">
         <v>80</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="30" t="e">
         <f t="shared" ref="U11:U15" si="3">S11*T11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75">
       <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="52" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -1314,29 +1383,29 @@
       <c r="O12" s="9"/>
       <c r="P12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>Andrew</v>
       </c>
       <c r="R12" s="23">
         <f>P12/$P$18*$B$6</f>
         <v>0</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T12" s="23">
         <v>80</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="30" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="8"/>
@@ -1364,19 +1433,19 @@
         <f>P13/$P$18*$B$6</f>
         <v>0</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T13" s="23">
         <v>80</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="30" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75">
       <c r="A14" s="48"/>
       <c r="B14" s="49"/>
       <c r="C14" s="8"/>
@@ -1404,19 +1473,19 @@
         <f>P14/$P$18*$B$6</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T14" s="23">
         <v>80</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="30" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="8"/>
@@ -1444,19 +1513,19 @@
         <f>P15/$P$18*$B$6</f>
         <v>0</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T15" s="23">
         <v>80</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="30" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="8"/>
@@ -1479,7 +1548,7 @@
       <c r="T16" s="23"/>
       <c r="U16" s="30"/>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="16.5" thickBot="1">
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="10"/>
@@ -1502,7 +1571,7 @@
       <c r="T17" s="25"/>
       <c r="U17" s="31"/>
     </row>
-    <row r="18" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
       <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
@@ -1512,15 +1581,15 @@
       </c>
       <c r="D18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G18" s="37">
         <f t="shared" si="4"/>
@@ -1560,40 +1629,40 @@
       </c>
       <c r="P18" s="39">
         <f>SUM(C18:O18)</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="R18" s="19">
         <f>MAX(R10:R17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="18" t="e">
         <f>AVERAGE(U10:U17)</f>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="P19" s="6"/>
       <c r="T19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="18" t="e">
         <f>MAX(U10:U17)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="T20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="18" t="e">
         <f>MIN(U10:U17)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1609,19 +1678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="2"/>
-    <col min="2" max="2" width="118.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2"/>
+    <col min="2" max="2" width="118.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -1632,102 +1703,102 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="44"/>
+      <c r="C2" s="43"/>
+    </row>
+    <row r="3" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="53" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="43"/>
     </row>
-    <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="53" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="43"/>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="43"/>
     </row>
-    <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="43"/>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="43"/>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="43"/>
     </row>
-    <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="43"/>

--- a/flocking/CS3343_ActivityLog_TimeSheet_Boids.xlsx
+++ b/flocking/CS3343_ActivityLog_TimeSheet_Boids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex McVay\git\flocking\flocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981DC8C-74AF-40A1-9251-330FDE0D1A08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35201A-38AD-425C-A862-BFD044AA9945}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1280,7 +1280,9 @@
       <c r="F10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1291,7 +1293,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="27">
         <f>SUM(C10:O10)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f>B10</f>
@@ -1326,7 +1328,9 @@
       <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>6</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1337,7 +1341,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="27">
         <f t="shared" ref="P11:P15" si="1">SUM(C11:O11)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f t="shared" ref="Q11:Q15" si="2">B11</f>
@@ -1372,7 +1376,9 @@
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1383,7 +1389,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="G18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="4"/>
@@ -1629,7 +1635,7 @@
       </c>
       <c r="P18" s="39">
         <f>SUM(C18:O18)</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>25</v>
@@ -1681,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
